--- a/CreatedFiles/ZALICZKA_2016_6793060742.xlsx
+++ b/CreatedFiles/ZALICZKA_2016_6793060742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
   <si>
     <t>Przychód</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>358</t>
+  </si>
+  <si>
+    <t>-1642</t>
+  </si>
+  <si>
+    <t>2662,03</t>
+  </si>
+  <si>
+    <t>2662</t>
   </si>
 </sst>
 </file>
@@ -165,13 +174,205 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="79">
+  <fonts count="105">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color rgb="FFFF0000"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color rgb="FFFF0000"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="11"/>
@@ -884,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1006,66 +1207,126 @@
       <main:alignment horizontal="left"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="1" fillId="0" fontId="53" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="2" fillId="0" fontId="54" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="55" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="56" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="57" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="58" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="59" numFmtId="4" xfId="0" applyFill="true" applyFont="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="60" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="61" numFmtId="4" xfId="0" applyFill="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="62" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="4" xfId="0" applyFill="true" applyFont="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="66" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="67" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="68" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="69" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="70" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="71" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="72" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="73" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="74" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="75" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="76" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="0" fontId="77" numFmtId="0" xfId="0" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" borderId="10" fillId="0" fontId="78" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="59" numFmtId="4" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="61" numFmtId="4" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="4" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="2" fillId="0" fontId="80" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="81" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="82" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="83" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="84" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="85" numFmtId="4" xfId="0" applyFill="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="86" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="87" numFmtId="4" xfId="0" applyFill="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="88" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="4" xfId="0" applyFill="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="92" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="93" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="94" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="95" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="96" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="97" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="98" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="99" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="100" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="101" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="102" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="0" fontId="103" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="10" fillId="0" fontId="104" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1316,13 +1577,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="30.0" r="1">
@@ -1564,220 +1825,220 @@
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="83" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="true">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="85" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" ht="15.0" customHeight="true">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="59" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="87" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
     </row>
     <row r="6" ht="15.0" customHeight="true">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="59" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="85" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="61" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="87" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="59"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="85"/>
     </row>
     <row r="9" ht="15.0" customHeight="true">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="59" t="s">
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="59"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="85"/>
     </row>
     <row r="11" ht="15.0" customHeight="true">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="59" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="59"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="59"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="85"/>
     </row>
     <row r="14" ht="15.0" customHeight="true">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="59" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="85" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="59" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="85" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="59" t="s">
-        <v>45</v>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="85" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="59" t="s">
-        <v>46</v>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="85" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="true">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="61" t="s">
-        <v>47</v>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="87" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="true">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CreatedFiles/ZALICZKA_2016_6793060742.xlsx
+++ b/CreatedFiles/ZALICZKA_2016_6793060742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
   <si>
     <t>Przychód</t>
   </si>
@@ -174,13 +174,205 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="105">
+  <fonts count="131">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color rgb="FFFF0000"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color rgb="FFFF0000"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+      <main:scheme val="minor"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="11"/>
@@ -1085,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="131">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1267,66 +1459,126 @@
       <main:alignment horizontal="left"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="2" fillId="0" fontId="80" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="81" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="82" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="83" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="84" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="85" numFmtId="4" xfId="0" applyFill="true" applyFont="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="86" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="87" numFmtId="4" xfId="0" applyFill="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="88" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="4" xfId="0" applyFill="true" applyFont="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="92" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="93" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="94" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="95" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="96" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="97" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="98" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="99" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="100" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="101" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="102" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="0" fontId="103" numFmtId="0" xfId="0" applyNumberFormat="true">
-      <main:alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" borderId="10" fillId="0" fontId="104" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="85" numFmtId="4" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="87" numFmtId="4" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="4" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="104" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="1" fillId="0" fontId="105" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="2" fillId="0" fontId="106" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="107" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="108" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="109" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="110" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="111" numFmtId="4" xfId="0" applyFill="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="112" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="113" numFmtId="4" xfId="0" applyFill="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="114" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="4" xfId="0" applyFill="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="118" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="119" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="120" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="121" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="122" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="123" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="124" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="125" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="126" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="127" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="128" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="0" fontId="129" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="10" fillId="0" fontId="130" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1825,220 +2077,220 @@
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
-      <c r="A1" s="79"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="109" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="true">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="111" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
     </row>
     <row r="4" ht="15.0" customHeight="true">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="85" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="113" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
     </row>
     <row r="6" ht="15.0" customHeight="true">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="85" t="s">
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="111" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="87" t="s">
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="113" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="85"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="111"/>
     </row>
     <row r="9" ht="15.0" customHeight="true">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="85" t="s">
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="111" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="85"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" ht="15.0" customHeight="true">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="85" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="111" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="85"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="111"/>
     </row>
     <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="85"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="111"/>
     </row>
     <row r="14" ht="15.0" customHeight="true">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="85" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="111" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="85" t="s">
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="111" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="85" t="s">
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="111" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="85" t="s">
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="111" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="true">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="87" t="s">
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="113" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="true">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
